--- a/BHEL-Project-1/wwwroot/Uploads/Traction Converter.xlsx
+++ b/BHEL-Project-1/wwwroot/Uploads/Traction Converter.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A653957F-81E4-4B39-A854-9499F4CECE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +13,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="292">
   <si>
     <t>Acceptance Report</t>
   </si>
@@ -936,11 +937,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1149,6 +1150,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1182,7 +1189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1328,25 +1335,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1372,9 +1366,6 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1384,10 +1375,7 @@
     <xf numFmtId="1" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1399,25 +1387,19 @@
     <xf numFmtId="164" fontId="9" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1446,19 +1428,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1503,9 +1479,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1518,9 +1491,6 @@
     <xf numFmtId="1" fontId="27" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1542,9 +1512,6 @@
     <xf numFmtId="0" fontId="29" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,41 +1527,20 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="29" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1645,22 +1591,22 @@
     <xf numFmtId="1" fontId="29" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1669,9 +1615,6 @@
     <xf numFmtId="3" fontId="27" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="27" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1690,33 +1633,6 @@
     <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,34 +1681,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2069,71 +1982,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" customWidth="1"/>
+    <col min="6" max="6" width="20.1328125" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" customWidth="1"/>
+    <col min="9" max="9" width="22.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="128" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="128"/>
-      <c r="F1" s="128"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="135"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F4" s="117"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2075,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -2178,7 +2091,7 @@
       <c r="E6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -2191,7 +2104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A7" s="4">
         <v>2</v>
       </c>
@@ -2207,7 +2120,7 @@
       <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -2220,7 +2133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -2236,7 +2149,7 @@
       <c r="E8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -2249,7 +2162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -2265,7 +2178,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -2278,7 +2191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -2294,7 +2207,7 @@
       <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -2307,7 +2220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A11" s="4">
         <v>6</v>
       </c>
@@ -2323,7 +2236,7 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -2336,7 +2249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A12" s="4">
         <v>7</v>
       </c>
@@ -2352,7 +2265,7 @@
       <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -2365,7 +2278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -2381,7 +2294,7 @@
       <c r="E13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -2394,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -2410,7 +2323,7 @@
       <c r="E14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -2423,7 +2336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -2436,23 +2349,23 @@
       <c r="D15" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I15" s="125" t="s">
+      <c r="I15" s="123" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -2465,21 +2378,23 @@
       <c r="D16" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="126"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I16" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -2492,21 +2407,23 @@
       <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>50</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="126"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I17" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -2519,21 +2436,23 @@
       <c r="D18" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="126"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I18" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -2546,21 +2465,23 @@
       <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I19" s="126"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I19" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -2573,21 +2494,23 @@
       <c r="D20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="126"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I20" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -2600,21 +2523,23 @@
       <c r="D21" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>56</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="126"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I21" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -2627,21 +2552,23 @@
       <c r="D22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>59</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="126"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I22" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -2654,21 +2581,23 @@
       <c r="D23" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I23" s="127"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I23" s="123" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -2684,7 +2613,7 @@
       <c r="E24" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -2693,11 +2622,11 @@
       <c r="H24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="119" t="s">
+      <c r="I24" s="124" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -2713,7 +2642,7 @@
       <c r="E25" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -2722,9 +2651,11 @@
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="120"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I25" s="124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -2740,7 +2671,7 @@
       <c r="E26" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -2749,9 +2680,11 @@
       <c r="H26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="120"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I26" s="124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -2767,7 +2700,7 @@
       <c r="E27" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -2776,9 +2709,11 @@
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="121"/>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I27" s="124" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -2788,10 +2723,10 @@
       <c r="C28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="6" t="s">
@@ -2803,11 +2738,11 @@
       <c r="H28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -2817,10 +2752,10 @@
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -2832,11 +2767,11 @@
       <c r="H29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -2852,7 +2787,7 @@
       <c r="E30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -2865,23 +2800,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -2890,11 +2825,11 @@
       <c r="H31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="I31" s="5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -2907,23 +2842,23 @@
       <c r="D32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="4" t="s">
         <v>96</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -2936,56 +2871,56 @@
       <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="15" t="s">
         <v>102</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="15" t="s">
         <v>108</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -2994,27 +2929,27 @@
       <c r="D35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="122" t="s">
+      <c r="I35" s="120" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -3023,21 +2958,23 @@
       <c r="D36" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="123"/>
-    </row>
-    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I36" s="120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -3050,34 +2987,36 @@
       <c r="D37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="124"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I37" s="120" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
         <v>33</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="15">
         <v>1905724</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -3089,24 +3028,24 @@
       <c r="H38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="125" t="s">
+      <c r="I38" s="123" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
         <v>34</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="15">
         <v>1905719</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -3118,22 +3057,24 @@
       <c r="H39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="126"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I39" s="123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
         <v>35</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="15">
         <v>1905717</v>
       </c>
       <c r="F40" s="6" t="s">
@@ -3145,22 +3086,24 @@
       <c r="H40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="126"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="I40" s="123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A41" s="4">
         <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="15">
         <v>1905723</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -3172,184 +3115,183 @@
       <c r="H41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="127"/>
-    </row>
-    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I41" s="123" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B44" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B46" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="23" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B47" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="23" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B48" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="23" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="24" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I38:I41"/>
+  <mergeCells count="5">
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I15:I23"/>
   </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:F4"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="150" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="151"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="151"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="107" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="134"/>
-      <c r="I3" s="135"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A4" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="140"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="142" t="s">
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="143"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="138"/>
-    </row>
-    <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F4" s="117"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+    </row>
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3378,11 +3320,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3391,10 +3333,10 @@
       <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -3403,15 +3345,15 @@
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -3420,10 +3362,10 @@
       <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -3432,15 +3374,15 @@
       <c r="H7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="29" t="s">
+      <c r="I7" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -3449,10 +3391,10 @@
       <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -3461,15 +3403,15 @@
       <c r="H8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3478,10 +3420,10 @@
       <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -3490,15 +3432,15 @@
       <c r="H9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="29" t="s">
+      <c r="I9" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+    <row r="10" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -3507,10 +3449,10 @@
       <c r="D10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -3519,15 +3461,15 @@
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+    <row r="11" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -3536,10 +3478,10 @@
       <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -3548,15 +3490,15 @@
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+    <row r="12" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -3565,10 +3507,10 @@
       <c r="D12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -3577,15 +3519,15 @@
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="13" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -3594,10 +3536,10 @@
       <c r="D13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -3606,15 +3548,15 @@
       <c r="H13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I13" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+    <row r="14" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -3623,10 +3565,10 @@
       <c r="D14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -3635,15 +3577,15 @@
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="29" t="s">
+      <c r="I14" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -3652,10 +3594,10 @@
       <c r="D15" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G15" s="6" t="s">
@@ -3664,15 +3606,15 @@
       <c r="H15" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="122" t="s">
+      <c r="I15" s="120" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+    <row r="16" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -3681,10 +3623,10 @@
       <c r="D16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G16" s="6" t="s">
@@ -3693,13 +3635,15 @@
       <c r="H16" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I16" s="148"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="I16" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -3708,10 +3652,10 @@
       <c r="D17" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="E17" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G17" s="6" t="s">
@@ -3720,13 +3664,15 @@
       <c r="H17" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="148"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="I17" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -3735,10 +3681,10 @@
       <c r="D18" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -3747,13 +3693,15 @@
       <c r="H18" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I18" s="148"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="I18" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -3762,10 +3710,10 @@
       <c r="D19" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="E19" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3774,13 +3722,15 @@
       <c r="H19" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I19" s="148"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="I19" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -3789,10 +3739,10 @@
       <c r="D20" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G20" s="6" t="s">
@@ -3801,13 +3751,15 @@
       <c r="H20" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="148"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="I20" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -3816,10 +3768,10 @@
       <c r="D21" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G21" s="6" t="s">
@@ -3828,13 +3780,15 @@
       <c r="H21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="148"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="I21" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -3843,10 +3797,10 @@
       <c r="D22" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G22" s="6" t="s">
@@ -3855,13 +3809,15 @@
       <c r="H22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="148"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="I22" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -3870,10 +3826,10 @@
       <c r="D23" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="6" t="s">
@@ -3882,13 +3838,15 @@
       <c r="H23" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I23" s="149"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="I23" s="120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3897,8 +3855,8 @@
       <c r="D24" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="9" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3907,15 +3865,15 @@
       <c r="H24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I24" s="144" t="s">
+      <c r="I24" s="121" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>20</v>
-      </c>
-      <c r="B25" s="13" t="s">
+    <row r="25" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A25" s="4">
+        <v>20</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -3924,8 +3882,8 @@
       <c r="D25" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="9" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -3934,13 +3892,15 @@
       <c r="H25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I25" s="145"/>
-    </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="I25" s="121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -3949,8 +3909,8 @@
       <c r="D26" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="9" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -3959,13 +3919,15 @@
       <c r="H26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I26" s="145"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="I26" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="13" t="s">
+    </row>
+    <row r="27" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.5">
+      <c r="A27" s="4">
+        <v>22</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -3974,10 +3936,10 @@
       <c r="D27" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G27" s="6" t="s">
@@ -3986,25 +3948,27 @@
       <c r="H27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="146"/>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="I27" s="121" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="17" t="s">
+      <c r="E28" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G28" s="6" t="s">
@@ -4013,27 +3977,27 @@
       <c r="H28" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="29" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="5" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="17" t="s">
+      <c r="E29" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -4042,15 +4006,15 @@
       <c r="H29" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+    <row r="30" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="5" t="s">
         <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -4059,10 +4023,10 @@
       <c r="D30" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -4071,15 +4035,15 @@
       <c r="H30" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I30" s="29" t="s">
+      <c r="I30" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+    <row r="31" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -4088,10 +4052,10 @@
       <c r="D31" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="4" t="s">
         <v>89</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -4100,15 +4064,15 @@
       <c r="H31" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="I31" s="32" t="s">
+      <c r="I31" s="28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+    <row r="32" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C32" s="6" t="s">
@@ -4117,27 +4081,27 @@
       <c r="D32" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="H32" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I32" s="29" t="s">
+      <c r="I32" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="33" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="6" t="s">
@@ -4146,56 +4110,56 @@
       <c r="D33" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I33" s="29" t="s">
+      <c r="I33" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+    <row r="34" spans="1:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="A34" s="4">
         <v>29</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I34" s="29" t="s">
+      <c r="I34" s="25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+    <row r="35" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="4">
         <v>30</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="5" t="s">
         <v>109</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -4204,27 +4168,27 @@
       <c r="D35" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="E35" s="17" t="s">
+      <c r="E35" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G35" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H35" s="19" t="s">
+      <c r="G35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I35" s="147" t="s">
+      <c r="I35" s="122" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+    <row r="36" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A36" s="4">
         <v>31</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="5" t="s">
         <v>115</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -4233,25 +4197,27 @@
       <c r="D36" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="19" t="s">
+      <c r="G36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="148"/>
-    </row>
-    <row r="37" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="I36" s="122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A37" s="4">
         <v>32</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="5" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -4260,25 +4226,27 @@
       <c r="D37" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="19" t="s">
+      <c r="G37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I37" s="149"/>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="I37" s="122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="4">
         <v>33</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C38" s="6" t="s">
@@ -4287,10 +4255,10 @@
       <c r="D38" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G38" s="6" t="s">
@@ -4299,15 +4267,15 @@
       <c r="H38" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I38" s="147" t="s">
+      <c r="I38" s="122" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+    <row r="39" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A39" s="4">
         <v>34</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C39" s="6" t="s">
@@ -4316,10 +4284,10 @@
       <c r="D39" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="F39" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G39" s="6" t="s">
@@ -4328,13 +4296,15 @@
       <c r="H39" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="148"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="I39" s="122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A40" s="4">
         <v>35</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -4343,10 +4313,10 @@
       <c r="D40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F40" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G40" s="6" t="s">
@@ -4355,13 +4325,15 @@
       <c r="H40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I40" s="148"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="I40" s="122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A41" s="4">
         <v>36</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="5" t="s">
         <v>123</v>
       </c>
       <c r="C41" s="6" t="s">
@@ -4370,10 +4342,10 @@
       <c r="D41" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="15" t="s">
         <v>191</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="F41" s="4" t="s">
         <v>126</v>
       </c>
       <c r="G41" s="6" t="s">
@@ -4382,13 +4354,15 @@
       <c r="H41" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I41" s="149"/>
-    </row>
-    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="I41" s="122" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A42" s="4">
         <v>37</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="5" t="s">
         <v>131</v>
       </c>
       <c r="C42" s="6" t="s">
@@ -4397,386 +4371,383 @@
       <c r="D42" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="21" t="s">
+      <c r="G42" s="17" t="s">
         <v>20</v>
       </c>
       <c r="H42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I42" s="32" t="s">
+      <c r="I42" s="28" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="40"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B44" s="22" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B44" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="25"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="26"/>
-      <c r="B45" s="27" t="s">
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" s="22"/>
+      <c r="B45" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="41" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="F45" s="26"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="27" t="s">
+      <c r="F45" s="22"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B46" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="41" t="s">
+      <c r="C46" s="23"/>
+      <c r="D46" s="35" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="27" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B47" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="41" t="s">
+      <c r="C47" s="23"/>
+      <c r="D47" s="35" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B48" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="41" t="s">
+      <c r="C48" s="23"/>
+      <c r="D48" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B49" s="27" t="s">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B49" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="41" t="s">
+      <c r="C49" s="23"/>
+      <c r="D49" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H50" s="28"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="28" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="H50" s="24"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B54" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="I54" s="28" t="s">
+      <c r="I54" s="24" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="I38:I41"/>
+  <mergeCells count="5">
     <mergeCell ref="D1:F2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:I4"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="I15:I23"/>
   </mergeCells>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D5:T24"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.1328125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.3984375" customWidth="1"/>
+    <col min="8" max="8" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-    </row>
-    <row r="6" spans="4:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="D6" s="45"/>
-      <c r="E6" s="45" t="s">
+    <row r="5" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+    </row>
+    <row r="6" spans="4:20" ht="25.5" x14ac:dyDescent="0.75">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="H6" s="46"/>
-      <c r="I6" s="48" t="s">
+      <c r="H6" s="40"/>
+      <c r="I6" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="4:20" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="D7" s="50" t="s">
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="4:20" ht="21.75" x14ac:dyDescent="0.45">
+      <c r="D7" s="44" t="s">
         <v>200</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="51" t="s">
+      <c r="G7" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="48" t="s">
         <v>207</v>
       </c>
-      <c r="M7" s="54" t="s">
+      <c r="M7" s="48" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D8" s="45">
+    <row r="8" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D8" s="39">
         <v>1</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="H8" s="45">
+      <c r="H8" s="39">
         <v>18</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="39">
         <f>H8*34</f>
         <v>612</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="49"/>
-    </row>
-    <row r="9" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D9" s="45">
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+    </row>
+    <row r="9" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D9" s="39">
         <v>2</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="H9" s="45">
+      <c r="H9" s="39">
         <v>18</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="39">
         <f t="shared" ref="I9:I24" si="0">H9*34</f>
         <v>612</v>
       </c>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="49"/>
-    </row>
-    <row r="10" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D10" s="45">
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D10" s="39">
         <v>3</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="45" t="s">
+      <c r="F10" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="45" t="s">
+      <c r="G10" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="45">
+      <c r="H10" s="39">
         <v>2</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="42">
         <f>H10*12</f>
         <v>24</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="42">
         <v>25</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="42">
         <f>J10+K10</f>
         <v>49</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="42">
         <f>I10-L10</f>
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D11" s="45">
+    <row r="11" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D11" s="39">
         <v>4</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G11" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="45">
+      <c r="H11" s="39">
         <v>2</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="42">
         <f t="shared" ref="J11:J24" si="1">H11*12</f>
         <v>24</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="42">
         <v>22</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="42">
         <f t="shared" ref="L11:L21" si="2">J11+K11</f>
         <v>46</v>
       </c>
-      <c r="M11" s="48">
+      <c r="M11" s="42">
         <f t="shared" ref="M11:M21" si="3">I11-L11</f>
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D12" s="45">
+    <row r="12" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D12" s="39">
         <v>5</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="H12" s="45">
+      <c r="H12" s="39">
         <v>2</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="42">
         <v>15</v>
       </c>
-      <c r="L12" s="48">
+      <c r="L12" s="42">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="M12" s="48">
+      <c r="M12" s="42">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D13" s="45">
+    <row r="13" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D13" s="39">
         <v>6</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="G13" s="45" t="s">
+      <c r="G13" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="H13" s="45">
+      <c r="H13" s="39">
         <v>2</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="42">
         <v>25</v>
       </c>
-      <c r="L13" s="48">
+      <c r="L13" s="42">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="M13" s="48">
+      <c r="M13" s="42">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
@@ -4784,371 +4755,371 @@
         <v>256</v>
       </c>
     </row>
-    <row r="14" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D14" s="45">
+    <row r="14" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D14" s="39">
         <v>7</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="45" t="s">
+      <c r="F14" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="39">
         <v>2</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="42">
         <v>21</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="42">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="42">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D15" s="45">
+    <row r="15" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D15" s="39">
         <v>8</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="G15" s="45" t="s">
+      <c r="G15" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="H15" s="45">
+      <c r="H15" s="39">
         <v>18</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="39">
         <f t="shared" si="0"/>
         <v>612</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="42">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="42">
         <v>36</v>
       </c>
-      <c r="L15" s="48">
+      <c r="L15" s="42">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="M15" s="48">
+      <c r="M15" s="42">
         <f t="shared" si="3"/>
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="4:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="D16" s="45">
+    <row r="16" spans="4:20" ht="21" x14ac:dyDescent="0.65">
+      <c r="D16" s="39">
         <v>9</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="39" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="45">
+      <c r="H16" s="39">
         <v>2</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J16" s="48">
+      <c r="J16" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K16" s="48">
+      <c r="K16" s="42">
         <v>4</v>
       </c>
-      <c r="L16" s="48">
+      <c r="L16" s="42">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="M16" s="48">
+      <c r="M16" s="42">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D17" s="45">
+    <row r="17" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D17" s="39">
         <v>10</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="G17" s="45" t="s">
+      <c r="G17" s="39" t="s">
         <v>237</v>
       </c>
-      <c r="H17" s="45">
+      <c r="H17" s="39">
         <v>2</v>
       </c>
-      <c r="I17" s="45">
+      <c r="I17" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K17" s="48">
+      <c r="K17" s="42">
         <v>26</v>
       </c>
-      <c r="L17" s="48">
+      <c r="L17" s="42">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="M17" s="48">
+      <c r="M17" s="42">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D18" s="45">
+    <row r="18" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D18" s="39">
         <v>11</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="39" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="45" t="s">
+      <c r="F18" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="G18" s="45" t="s">
+      <c r="G18" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="H18" s="45">
+      <c r="H18" s="39">
         <v>4</v>
       </c>
-      <c r="I18" s="45">
+      <c r="I18" s="39">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K18" s="48">
+      <c r="K18" s="42">
         <v>32</v>
       </c>
-      <c r="L18" s="48">
+      <c r="L18" s="42">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="M18" s="48">
+      <c r="M18" s="42">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D19" s="45">
+    <row r="19" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D19" s="39">
         <v>12</v>
       </c>
-      <c r="E19" s="45" t="s">
+      <c r="E19" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="39" t="s">
         <v>242</v>
       </c>
-      <c r="G19" s="45" t="s">
+      <c r="G19" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="H19" s="45">
+      <c r="H19" s="39">
         <v>4</v>
       </c>
-      <c r="I19" s="45">
+      <c r="I19" s="39">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="42">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K19" s="48">
+      <c r="K19" s="42">
         <v>29</v>
       </c>
-      <c r="L19" s="48">
+      <c r="L19" s="42">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="M19" s="48">
+      <c r="M19" s="42">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D20" s="45">
+    <row r="20" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D20" s="39">
         <v>13</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="39" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="39" t="s">
         <v>245</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="39" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="39">
         <v>2</v>
       </c>
-      <c r="I20" s="45">
+      <c r="I20" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="42">
         <v>33</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="42">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="42">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D21" s="45">
+    <row r="21" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D21" s="39">
         <v>14</v>
       </c>
-      <c r="E21" s="45" t="s">
+      <c r="E21" s="39" t="s">
         <v>247</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="G21" s="45" t="s">
+      <c r="G21" s="39" t="s">
         <v>249</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="39">
         <v>4</v>
       </c>
-      <c r="I21" s="45">
+      <c r="I21" s="39">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="42">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K21" s="48">
+      <c r="K21" s="42">
         <v>16</v>
       </c>
-      <c r="L21" s="48">
+      <c r="L21" s="42">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="M21" s="48">
+      <c r="M21" s="42">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D22" s="45">
+    <row r="22" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D22" s="39">
         <v>15</v>
       </c>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45" t="s">
+      <c r="E22" s="39"/>
+      <c r="F22" s="39" t="s">
         <v>250</v>
       </c>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="39">
         <v>4</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="39">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="42">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="49"/>
-    </row>
-    <row r="23" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D23" s="45">
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="43"/>
+    </row>
+    <row r="23" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D23" s="39">
         <v>16</v>
       </c>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45" t="s">
+      <c r="E23" s="39"/>
+      <c r="F23" s="39" t="s">
         <v>252</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G23" s="39" t="s">
         <v>253</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="39">
         <v>2</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="39">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="42">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="49"/>
-    </row>
-    <row r="24" spans="4:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="D24" s="45">
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="43"/>
+    </row>
+    <row r="24" spans="4:13" ht="21" x14ac:dyDescent="0.65">
+      <c r="D24" s="39">
         <v>17</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="55" t="s">
+      <c r="E24" s="39"/>
+      <c r="F24" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="G24" s="56" t="s">
+      <c r="G24" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="39">
         <v>4</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="39">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="42">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="49"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5157,572 +5128,572 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" customWidth="1"/>
+    <col min="3" max="3" width="7.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" customWidth="1"/>
+    <col min="6" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="5.86328125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="57" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B2" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="52" t="s">
         <v>161</v>
       </c>
-      <c r="E2" s="60"/>
-      <c r="F2" s="61" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="62" t="s">
+      <c r="G2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B4" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="60"/>
-      <c r="F4" s="9" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="55" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B6" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="9" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="65"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="69"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="71" t="s">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="65"/>
+      <c r="F8" s="63" t="s">
         <v>260</v>
       </c>
-      <c r="G8" s="75"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="9" t="s">
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B9" s="77" t="s">
+    <row r="9" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B9" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="51" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="79"/>
-      <c r="F9" s="9" t="s">
+      <c r="E9" s="67"/>
+      <c r="F9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="55" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-    </row>
-    <row r="11" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B11" s="86" t="s">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="68"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B11" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="72"/>
+      <c r="F11" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="19" t="s">
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B12" s="77" t="s">
+    <row r="12" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B12" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="72"/>
+      <c r="F12" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="G12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="57" t="s">
+    <row r="13" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="13" t="s">
+      <c r="E13" s="73"/>
+      <c r="F13" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="13"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="86" t="s">
+      <c r="E14" s="67"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="71" t="s">
         <v>263</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="90" t="s">
+      <c r="E15" s="67"/>
+      <c r="F15" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="77" t="s">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="71" t="s">
         <v>266</v>
       </c>
-      <c r="E16" s="79"/>
-      <c r="F16" s="90" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B17" s="57" t="s">
+    <row r="17" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="90" t="s">
+      <c r="E17" s="67"/>
+      <c r="F17" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="65"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-      <c r="I19" s="93"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="77" t="s">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="57"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="51" t="s">
         <v>106</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="E20" s="95"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="95"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B22" s="77" t="s">
+      <c r="G21" s="4"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B22" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="96" t="s">
+      <c r="D22" s="80" t="s">
         <v>268</v>
       </c>
-      <c r="E22" s="79"/>
+      <c r="E22" s="67"/>
       <c r="F22" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="4" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="I22" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-      <c r="I23" s="93"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="57" t="s">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B24" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E24" s="97" t="s">
+      <c r="E24" s="81" t="s">
         <v>272</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H24" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="57"/>
-      <c r="C25" s="78"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="95"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B26" s="57" t="s">
+      <c r="G25" s="4"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B26" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="E26" s="97" t="s">
+      <c r="E26" s="81" t="s">
         <v>274</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="G26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H26" s="62" t="s">
+      <c r="H26" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="I26" s="63" t="s">
+      <c r="I26" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="57"/>
-      <c r="C27" s="78"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
       <c r="D27" s="5"/>
-      <c r="E27" s="98"/>
+      <c r="E27" s="82"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="G27" s="4"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B28" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="51" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E28" s="99"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="61" t="s">
+      <c r="H28" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="I28" s="63" t="s">
+      <c r="I28" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="77" t="s">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B31" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="64" t="s">
         <v>278</v>
       </c>
-      <c r="E31" s="100"/>
-      <c r="F31" s="72" t="s">
+      <c r="E31" s="84"/>
+      <c r="F31" s="63" t="s">
         <v>279</v>
       </c>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="9" t="s">
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B32" s="77" t="s">
+    <row r="32" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B32" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="E32" s="98"/>
-      <c r="F32" s="77" t="s">
+      <c r="E32" s="82"/>
+      <c r="F32" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="G32" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="78" t="s">
+      <c r="G32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B34" s="57" t="s">
+    <row r="34" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B34" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="102" t="s">
+      <c r="C34" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E34" s="103" t="s">
+      <c r="E34" s="87" t="s">
         <v>281</v>
       </c>
       <c r="F34" s="6" t="s">
@@ -5734,73 +5705,73 @@
       <c r="H34" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I34" s="63" t="s">
+      <c r="I34" s="55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="104"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="109"/>
-    </row>
-    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+    <row r="35" spans="2:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="93"/>
+    </row>
+    <row r="36" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
+      <c r="B36" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="E36" s="111" t="s">
+      <c r="E36" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H36" s="112" t="s">
+      <c r="H36" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="77" t="s">
+    <row r="39" spans="2:9" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="B39" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D39" s="113" t="s">
+      <c r="D39" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="E39" s="114" t="s">
+      <c r="E39" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="77" t="s">
+      <c r="F39" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="G39" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="78" t="s">
+      <c r="G39" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="25.5" x14ac:dyDescent="0.45">
       <c r="B42" s="5" t="s">
         <v>92</v>
       </c>
@@ -5810,7 +5781,7 @@
       <c r="D42" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>2406517</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -5819,15 +5790,15 @@
       <c r="G42" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H42" s="16" t="s">
+      <c r="H42" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="5" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="B43" s="57" t="s">
+    <row r="43" spans="2:9" ht="17.649999999999999" x14ac:dyDescent="0.45">
+      <c r="B43" s="50" t="s">
         <v>92</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -5836,7 +5807,7 @@
       <c r="D43" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="11" t="s">
         <v>289</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -5845,24 +5816,24 @@
       <c r="G43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H43" s="16" t="s">
+      <c r="H43" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B45" s="115" t="s">
+    <row r="45" spans="2:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="B45" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C45" s="116" t="s">
+      <c r="C45" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="D45" s="117" t="s">
+      <c r="D45" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="118"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="6" t="s">
         <v>126</v>
       </c>
@@ -5876,17 +5847,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:9" ht="21" x14ac:dyDescent="0.25">
-      <c r="B46" s="115" t="s">
+    <row r="46" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B46" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="D46" s="117" t="s">
+      <c r="D46" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="118"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="6" t="s">
         <v>291</v>
       </c>
@@ -5896,7 +5867,7 @@
       <c r="H46" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I46" s="63" t="s">
+      <c r="I46" s="55" t="s">
         <v>78</v>
       </c>
     </row>
